--- a/medicine/Psychotrope/Muscat/Muscat.xlsx
+++ b/medicine/Psychotrope/Muscat/Muscat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muscat (de l'occitan : muscat = « musqué ») est une dénomination qui recouvre un ensemble d'environ 200 cépages dont les raisins ont un arôme muscaté, c'est-à-dire très parfumé, rappelant légèrement celui du musc[1] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscat (de l'occitan : muscat = « musqué ») est une dénomination qui recouvre un ensemble d'environ 200 cépages dont les raisins ont un arôme muscaté, c'est-à-dire très parfumé, rappelant légèrement celui du musc .
 Il en existe de nombreuses variétés, dont les grains ont une peau allant du jaune pâle au bleu-noir.
-Les différents types de muscats sont plantés sur le pourtour de la Méditerranée, en Europe centrale et orientale, en Australie, en Nouvelle-Zélande, dans certaines régions des Amériques et en Afrique du Sud. Leur vinification est délicate. On en fait des vins secs légers, des vins sucrés mousseux, des vins de vendanges tardives, des sélections de grains nobles et des vins doux naturels [2]. Tous les cépages muscat (qu’ils soient de raisin blanc, rose, rouge, ou noir), qu’ils soient cépages de cuve ou cépages de table, qu’ils soient issus de Vitis vinifera ou de cépages hybrides, sont caractérisés par leur arôme muscaté.
+Les différents types de muscats sont plantés sur le pourtour de la Méditerranée, en Europe centrale et orientale, en Australie, en Nouvelle-Zélande, dans certaines régions des Amériques et en Afrique du Sud. Leur vinification est délicate. On en fait des vins secs légers, des vins sucrés mousseux, des vins de vendanges tardives, des sélections de grains nobles et des vins doux naturels . Tous les cépages muscat (qu’ils soient de raisin blanc, rose, rouge, ou noir), qu’ils soient cépages de cuve ou cépages de table, qu’ils soient issus de Vitis vinifera ou de cépages hybrides, sont caractérisés par leur arôme muscaté.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscat blanc à petits grains, est probablement le cépage le plus ancien, anathelicon moschaton, chez les Grecs, d'après l'ampélographe Pierre Galet. Sous Charlemagne, Frontignan exportait déjà ses vins de muscat. Sous le nom de Muskateller, on le signale en Allemagne au XIIe siècle, et il existe en Alsace au XVIe siècle. Il est planté en Italie (DOC Moscato d'Asti produisant des vins mousseux dans le Piémont), en Valais (Suisse), en Grèce (Muscat de Samos) et en Hongrie (Muskatoly, Badacsonyi).
 Le muscat d’Alexandrie, a lui aussi été disséminé par les Romains autour de la Méditerranée ; il est possible, comme son nom l'indique, qu'il soit originaire d'Égypte. En Australie on l'appelle lexia (diminutif d'Alexandrie). Il produit le Moscatel ou Moscatell d’Espagne (Moscatel de Paja-Rancio) et du Portugal (muscat de Setúbal ou moscatel de Setúbal), le muscat de Sicile (DOC Moscato di Siracusa, moscato di Trentino, moscato di Noto (passito), moscato di Pantelleria (passito ou mousseux).
@@ -546,9 +560,11 @@
           <t>L'arôme muscaté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arôme caractéristique dit « muscaté » provient de substances naturelles nommées terpènes, que l’on retrouve dans les raisins de type muscat. Plus précisément, des études ont montré que le linalol, l’oxyde de linalol, le géraniol, le nérol et le terpinéol sont les principaux composants de cet arôme. Ces molécules, également utilisées dans les parfums, ont un profil olfactif plutôt floral. Le muscat se marie très bien avec du foie gras. Ces arômes muscatés et de raisin frais l'imposent dans la préparation des cocktails, amuse-gueules, potages, entrées, poissons et crustacés, volailles et viandes, légumes, sauces et desserts[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arôme caractéristique dit « muscaté » provient de substances naturelles nommées terpènes, que l’on retrouve dans les raisins de type muscat. Plus précisément, des études ont montré que le linalol, l’oxyde de linalol, le géraniol, le nérol et le terpinéol sont les principaux composants de cet arôme. Ces molécules, également utilisées dans les parfums, ont un profil olfactif plutôt floral. Le muscat se marie très bien avec du foie gras. Ces arômes muscatés et de raisin frais l'imposent dans la préparation des cocktails, amuse-gueules, potages, entrées, poissons et crustacés, volailles et viandes, légumes, sauces et desserts
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Spécialités régionales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Alsace, les muscat ottonel (plus répandu) et muscat à petits grains (localement nommé muscat d'Alsace) font partie des cépages nobles bien que ne constituant que 3 % de l'encépagement. En assemblage ou seuls, ils donnent un vin sec, aromatique, muscaté, à boire en apéritif. Lorsqu'ils sont récoltés en vendanges tardives ou en sélection de grains nobles, ils permettent l'élaboration d'excellents vins moelleux voire liquoreux.
 L'aleatico noir de l'île d'Elbe est une variété de muscat ; il en est de même de la muscadelle du Sauternais et du moscatello italien, utilisé pour l'Asti spumante.
@@ -614,7 +632,9 @@
           <t>Autour de la Méditerranée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les régions méditerranéennes françaises du golfe du Lion et en Corse, il existe plusieurs vins doux naturels issus de cépage muscat :
 Muscat de Beaumes-de-Venise
@@ -666,7 +686,9 @@
           <t>Un symbole de renaissance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le célèbre poème de Louis Aragon, La rose et le réséda, appel à la Résistance, par-delà les clivages politiques et religieux, au cœur de l'occupation allemande pendant la Seconde Guerre mondiale, le muscat est utilisé comme symbole de renaissance. Aragon y évoque ainsi, après l'exécution des résistants, le cheminement de leur « sang rouge » :« Il coule, il coule et se mêle
 A la terre qu'il aima
